--- a/pred_ohlcv/54_21/2019-11-21 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 WOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>12345.20097537447</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>12345.20097537447</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5996.26317537447</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6001.26317537447</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5792.91457537447</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5463.631175374469</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-30316.69371118015</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-30326.69371118015</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-30301.74771118015</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-32939.89231118015</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-38342.56771118015</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-38305.53441118015</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-38305.86331118015</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-38304.43591118015</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-46326.96271118015</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-46321.96271118015</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-73763.27271118015</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-73883.27271118015</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-77044.04681118015</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-51428.85081118015</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-22180.47961118016</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>39115.00308881985</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>39120.00308881985</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>20997.48078881985</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>23815.50318881985</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-10589.51721118015</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-33948.04661118015</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-36549.94791118015</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-33976.12811118015</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-33992.12811118015</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-33988.12811118015</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-38732.32291118015</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-34136.41761118015</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-45323.27751118015</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-43928.27721118015</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-43928.27721118015</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-43937.64221118014</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-62686.65621118013</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 WOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>12345.20097537447</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>12345.20097537447</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5996.26317537447</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6001.26317537447</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5792.91457537447</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5463.631175374469</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-54871.92141118015</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-51883.55891118015</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-30316.69371118015</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-30326.69371118015</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-30301.74771118015</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-32939.89231118015</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-32939.89231118015</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-32958.08231118015</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-22383.95571118015</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-38342.56771118015</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-38305.53441118015</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-38305.86331118015</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-38304.43591118015</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-45331.96271118015</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-45331.96271118015</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-46326.96271118015</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-46321.96271118015</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-61901.77401118015</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-61896.77401118015</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-73883.27271118015</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-77044.04681118015</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-51428.85081118015</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-45594.65111118015</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-45599.65111118015</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-45604.65111118015</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-45001.84711118016</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-45001.84711118016</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-45009.84711118016</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-45004.84711118016</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-45004.84711118016</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-50892.23371118015</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-50887.23371118015</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-50912.71981118016</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-50907.71981118016</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-50912.71981118016</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-51489.13711118016</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-51474.13711118016</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-22180.47961118016</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1319.973788819847</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>39115.00308881985</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>39120.00308881985</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>20997.48078881985</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>23815.50318881985</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-10589.51721118015</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-33948.04661118015</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-36549.94791118015</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-33976.12811118015</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-62686.65621118013</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
